--- a/examples/Tock Burn Document Example Template.xlsx
+++ b/examples/Tock Burn Document Example Template.xlsx
@@ -9,7 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="TOCK_API_KEY">Settings!$B$3:$C$3</definedName>
-    <definedName name="GradeRates">Settings!$B$12:$C$17</definedName>
+    <definedName name="GradeRates">Settings!$B$12:$C$18</definedName>
     <definedName name="PROJECT_PREFIX_FILTER">Settings!$B$6:$C$6</definedName>
   </definedNames>
   <calcPr/>
@@ -17,7 +17,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Tock API key:</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>This is a string of letters and numbers that gives this spreadsheet access to Tock.</t>
+  </si>
+  <si>
+    <t>Project prefix filter:</t>
+  </si>
+  <si>
+    <t>Custom Partner Solutions</t>
+  </si>
+  <si>
+    <t>This is optional. Set it to automatically filter out any timecard entries whose project name doesn't start with the value you provide.</t>
+  </si>
+  <si>
+    <t>Hourly rates</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>UNKNOWN / BLANK</t>
+  </si>
+  <si>
+    <t>GS-11</t>
+  </si>
+  <si>
+    <t>GS-12</t>
+  </si>
+  <si>
+    <t>GS-13</t>
+  </si>
+  <si>
+    <t>GS-14</t>
+  </si>
+  <si>
+    <t>GS-15</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Note that the "UNKNOWN / BLANK" grade is used in certain cases where Tock doesn't have any grade information available. In this case, it might be useful to set the rate to some average value so that the budget calculations remain relatively accurate.</t>
+  </si>
+  <si>
+    <t>Additional documentation</t>
+  </si>
+  <si>
+    <t>For additional documentation on this spreadsheet, see:</t>
+  </si>
+  <si>
+    <t>https://github.com/18F/tock-gas-ts</t>
+  </si>
   <si>
     <t>start_date</t>
   </si>
@@ -29,9 +95,6 @@
   </si>
   <si>
     <t>hours_spent</t>
-  </si>
-  <si>
-    <t>grade</t>
   </si>
   <si>
     <t>amount_billed</t>
@@ -68,63 +131,6 @@
   </si>
   <si>
     <t>james.monroe</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>Tock API key:</t>
-  </si>
-  <si>
-    <t>abcd123</t>
-  </si>
-  <si>
-    <t>This is a string of letters and numbers that gives this spreadsheet access to Tock.</t>
-  </si>
-  <si>
-    <t>Project prefix filter:</t>
-  </si>
-  <si>
-    <t>Custom Partner Solutions</t>
-  </si>
-  <si>
-    <t>This is optional. Set it to automatically filter out any timecard entries whose project name doesn't start with the value you provide.</t>
-  </si>
-  <si>
-    <t>Hourly rates</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>GS-11</t>
-  </si>
-  <si>
-    <t>GS-12</t>
-  </si>
-  <si>
-    <t>GS-13</t>
-  </si>
-  <si>
-    <t>GS-14</t>
-  </si>
-  <si>
-    <t>GS-15</t>
-  </si>
-  <si>
-    <t>SES</t>
-  </si>
-  <si>
-    <t>Additional documentation</t>
-  </si>
-  <si>
-    <t>For additional documentation on this spreadsheet, see:</t>
-  </si>
-  <si>
-    <t>https://github.com/18F/tock-gas-ts</t>
   </si>
   <si>
     <t>Project</t>
@@ -192,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="15">
@@ -204,11 +210,10 @@
     </font>
     <font>
       <b/>
+      <sz val="18.0"/>
     </font>
-    <font/>
     <font>
       <b/>
-      <sz val="18.0"/>
     </font>
     <font>
       <name val="Courier New"/>
@@ -216,6 +221,7 @@
     <font>
       <sz val="9.0"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -290,43 +296,43 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -338,34 +344,34 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -374,10 +380,10 @@
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -419,10 +425,10 @@
   <sheetData>
     <row r="1" ht="41.25">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -473,8 +479,8 @@
       <c r="AZ1" s="17"/>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="18"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
@@ -499,10 +505,10 @@
       <c r="AZ2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>39</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>50000.0</v>
       </c>
       <c r="C3" s="18"/>
@@ -529,18 +535,18 @@
       <c r="AZ3" s="19"/>
     </row>
     <row r="4" ht="23.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C4" s="21">
-        <f>VLOOKUP(B4, Settings!A12:C989, 3)</f>
+        <f>VLOOKUP(B4, Settings!A13:C989, 3)</f>
         <v>40</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
@@ -565,7 +571,7 @@
       <c r="AZ4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="AF5" s="19"/>
@@ -592,7 +598,7 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -603,7 +609,7 @@
         <v>43044.0</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
@@ -627,7 +633,7 @@
       <c r="AW6" s="19"/>
       <c r="AX6" s="19"/>
       <c r="AY6" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -635,16 +641,16 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
@@ -669,18 +675,18 @@
       <c r="AX7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
+      <c r="A8" s="7" t="s">
+        <v>27</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="D8" s="10">
+      <c r="B8" s="7"/>
+      <c r="D8" s="7">
         <v>32.0</v>
       </c>
       <c r="E8">
         <f>SUMIFS(Timecards!$D$1:$D989, Timecards!$A$1:$A989, D$6, Timecards!$B$1:$B989, $A8, Timecards!$C$1:$C989, $B$1)</f>
         <v>28</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>32.0</v>
       </c>
       <c r="G8">
@@ -710,18 +716,18 @@
       <c r="AX8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
+      <c r="A9" s="7" t="s">
+        <v>29</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="D9" s="10">
+      <c r="B9" s="7"/>
+      <c r="D9" s="7">
         <v>32.0</v>
       </c>
       <c r="E9">
         <f>SUMIFS(Timecards!$D$1:$D989, Timecards!$A$1:$A989, D$6, Timecards!$B$1:$B989, $A9, Timecards!$C$1:$C989, $B$1)</f>
         <v>26</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>32.0</v>
       </c>
       <c r="G9">
@@ -751,18 +757,18 @@
       <c r="AX9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
+      <c r="A10" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="D10" s="10">
+      <c r="B10" s="7"/>
+      <c r="D10" s="7">
         <v>32.0</v>
       </c>
       <c r="E10">
         <f>SUMIFS(Timecards!$D$1:$D989, Timecards!$A$1:$A989, D$6, Timecards!$B$1:$B989, $A10, Timecards!$C$1:$C989, $B$1)</f>
         <v>29</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>32.0</v>
       </c>
       <c r="G10">
@@ -792,18 +798,18 @@
       <c r="AX10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
+      <c r="A11" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="D11" s="10">
+      <c r="B11" s="7"/>
+      <c r="D11" s="7">
         <v>32.0</v>
       </c>
       <c r="E11">
         <f>SUMIFS(Timecards!$D$1:$D989, Timecards!$A$1:$A989, D$6, Timecards!$B$1:$B989, $A11, Timecards!$C$1:$C989, $B$1)</f>
         <v>32</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>32.0</v>
       </c>
       <c r="G11">
@@ -833,18 +839,18 @@
       <c r="AX11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
+      <c r="A12" s="7" t="s">
+        <v>33</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="D12" s="10">
+      <c r="B12" s="7"/>
+      <c r="D12" s="7">
         <v>32.0</v>
       </c>
       <c r="E12">
         <f>SUMIFS(Timecards!$D$1:$D989, Timecards!$A$1:$A989, D$6, Timecards!$B$1:$B989, $A12, Timecards!$C$1:$C989, $B$1)</f>
         <v>32</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>32.0</v>
       </c>
       <c r="G12">
@@ -876,10 +882,10 @@
       <c r="AX12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="AD13" s="19"/>
@@ -906,11 +912,11 @@
     </row>
     <row r="14" ht="68.25">
       <c r="A14" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="AD14" s="19"/>
@@ -961,8 +967,8 @@
       <c r="AX15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
+      <c r="A16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16">
@@ -1006,8 +1012,8 @@
       <c r="AX16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
+      <c r="A17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="30">
         <f>B3</f>
@@ -1019,15 +1025,15 @@
       </c>
       <c r="E17" s="30">
         <f>$B$3 - SUMIFS(Timecards!$F$1:$F989, Timecards!$A$1:$A989, "&lt;=" &amp; D$6, Timecards!$C$1:$C989, $B$1)</f>
-        <v>43220</v>
+        <v>43700</v>
       </c>
       <c r="F17" s="30">
         <f>E17 - $C$4 * F16</f>
-        <v>36820</v>
+        <v>37300</v>
       </c>
       <c r="G17" s="30">
         <f>$B$3 - SUMIFS(Timecards!$F$1:$F989, Timecards!$A$1:$A989, "&lt;=" &amp; F$6, Timecards!$C$1:$C989, $B$1)</f>
-        <v>43220</v>
+        <v>43700</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
@@ -1077,8 +1083,8 @@
       <c r="AZ18" s="19"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
+      <c r="A19" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B19">
         <f>SUMPRODUCT(--(MOD(COLUMN($B$16:$AX$16),2)=0),$B$16:$AX$16)</f>
@@ -1107,8 +1113,8 @@
       <c r="AZ19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
+      <c r="A20" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B20">
         <f>SUMIFS(Timecards!$D$1:$D989, Timecards!$C$1:$C989, $B$1)</f>
@@ -1160,12 +1166,12 @@
       <c r="AZ21" s="19"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
+      <c r="A22" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="31">
         <f>SUMIFS(Timecards!$F$1:$F989, Timecards!$C$1:$C989, $B$1)</f>
-        <v>6780</v>
+        <v>6300</v>
       </c>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
@@ -1213,8 +1219,8 @@
       <c r="AZ23" s="19"/>
     </row>
     <row r="24" ht="21.0">
-      <c r="A24" s="5" t="s">
-        <v>51</v>
+      <c r="A24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
@@ -1262,8 +1268,8 @@
       <c r="AZ25" s="19"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
+      <c r="A26" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B26" s="32" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($A$8:$A$15, UNIQUE(FILTER(Timecards!$B$1:$B989,Timecards!$C$1:$C989=$B$1)))"),"abraham.lincoln")</f>
@@ -1294,9 +1300,9 @@
       <c r="AZ26" s="19"/>
     </row>
     <row r="27" ht="30.75">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
@@ -1325,7 +1331,7 @@
       <c r="AZ27" s="19"/>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -1355,8 +1361,8 @@
       <c r="AZ28" s="19"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>54</v>
+      <c r="A29" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="32" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($B$6:$AAZ$6, UNIQUE(FILTER(Timecards!$A$1:$A989,Timecards!$C$1:$C989=$B$1)))"),"")</f>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="30" ht="41.25">
       <c r="B30" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
@@ -23473,12 +23479,12 @@
   <mergeCells count="9">
     <mergeCell ref="H6:I11"/>
     <mergeCell ref="AY6:AZ11"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B30:C30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -23494,428 +23500,447 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.57"/>
     <col customWidth="1" min="2" max="2" width="20.86"/>
-    <col customWidth="1" min="3" max="3" width="52.71"/>
+    <col customWidth="1" min="3" max="3" width="47.29"/>
+    <col customWidth="1" min="4" max="4" width="51.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" ht="21.0">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="C12" s="9">
+        <f>AVERAGE(C13:C18)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B18" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="20" ht="34.5">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="22" ht="21.0">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" ht="21.0">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="11">
-        <v>13.0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="11">
-        <v>14.0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="C16" s="12">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="19" ht="21.0">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C21"/>
+    <hyperlink r:id="rId1" ref="C24"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -23938,210 +23963,208 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="12">
         <v>28.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="12">
         <v>14.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="13">
         <f>D2 * VLOOKUP(E2, GradeRates, 2)</f>
         <v>1120</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>26.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>15.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <f>D3 * VLOOKUP(E3, GradeRates, 2)</f>
         <v>1300</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+      <c r="B4" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
+      <c r="C4" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>29.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>12.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="13">
         <f>D4 * VLOOKUP(E4, GradeRates, 2)</f>
         <v>580</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>32.0</v>
       </c>
-      <c r="E5" s="3">
-        <v>15.0</v>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <f>D5 * IF(E5="", VLOOKUP(-1, GradeRates, 2), VLOOKUP(E5, GradeRates, 2))</f>
+        <v>1120</v>
       </c>
-      <c r="F5" s="4">
-        <f>D5 * VLOOKUP(E5, GradeRates, 2)</f>
-        <v>1600</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>30.0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>13.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="13">
         <f>D6 * VLOOKUP(E6, GradeRates, 2)</f>
         <v>900</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>32.0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>14.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="13">
         <f>D7 * VLOOKUP(E7, GradeRates, 2)</f>
         <v>1280</v>
       </c>
     </row>
     <row r="8" ht="23.25">
-      <c r="A8" s="2">
+      <c r="A8" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
+      <c r="C8" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>12.0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>13.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="13">
         <f>D8 * VLOOKUP(E8, GradeRates, 2)</f>
         <v>360</v>
       </c>
     </row>
     <row r="9" ht="23.25">
-      <c r="A9" s="2">
+      <c r="A9" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="12">
         <v>1.0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <v>12.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="13">
         <f>D9 * VLOOKUP(E9, GradeRates, 2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="23.25">
-      <c r="A10" s="2">
+      <c r="A10" s="11">
         <v>43037.0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <v>11.5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>13.0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="13">
         <f>D10 * VLOOKUP(E10, GradeRates, 2)</f>
         <v>345</v>
       </c>

--- a/examples/Tock Burn Document Example Template.xlsx
+++ b/examples/Tock Burn Document Example Template.xlsx
@@ -9,8 +9,11 @@
   </sheets>
   <definedNames>
     <definedName name="TOCK_API_KEY">Settings!$B$3:$C$3</definedName>
+    <definedName name="BurnDoc_avgRate">'Burn Sheet'!$C$4</definedName>
     <definedName name="GradeRates">Settings!$B$12:$C$18</definedName>
     <definedName name="PROJECT_PREFIX_FILTER">Settings!$B$6:$C$6</definedName>
+    <definedName name="BurnDoc_budget">'Burn Sheet'!$B$3</definedName>
+    <definedName name="BurnDoc_project">'Burn Sheet'!$B$1</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -706,21 +709,21 @@
         <v>32.0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A8, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A8, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>28</v>
       </c>
       <c r="F8" s="10">
         <v>32.0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A8, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A8, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H8" s="10">
         <v>32.0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A8, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A8, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="19"/>
@@ -754,21 +757,21 @@
         <v>32.0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A9, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A9, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>26</v>
       </c>
       <c r="F9" s="10">
         <v>32.0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A9, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A9, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H9" s="10">
         <v>32.0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A9, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A9, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="19"/>
@@ -802,21 +805,21 @@
         <v>32.0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A10, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A10, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>29</v>
       </c>
       <c r="F10" s="10">
         <v>32.0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A10, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A10, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H10" s="10">
         <v>32.0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A10, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A10, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="19"/>
@@ -850,21 +853,21 @@
         <v>32.0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A11, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A11, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>32</v>
       </c>
       <c r="F11" s="10">
         <v>32.0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A11, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A11, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H11" s="10">
         <v>32.0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A11, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A11, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="19"/>
@@ -898,21 +901,21 @@
         <v>32.0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A12, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$B$1:$B992, $A12, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>32</v>
       </c>
       <c r="F12" s="10">
         <v>32.0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A12, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$B$1:$B992, $A12, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H12" s="10">
         <v>32.0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A12, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$B$1:$B992, $A12, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="J12" s="25"/>
@@ -1036,7 +1039,7 @@
         <v>160</v>
       </c>
       <c r="E16" s="29">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, D$6, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>177</v>
       </c>
       <c r="F16">
@@ -1044,7 +1047,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="29">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, F$6, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H16">
@@ -1052,7 +1055,7 @@
         <v>160</v>
       </c>
       <c r="I16" s="29">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$A$1:$A992, H$6, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="J16" s="25"/>
@@ -1084,27 +1087,27 @@
         <v>49</v>
       </c>
       <c r="D17" s="30">
-        <f>$C$4 * D16</f>
+        <f>BurnDoc_avgRate * D16</f>
         <v>6400</v>
       </c>
       <c r="E17" s="30">
-        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, D$6, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, D$6, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>6300</v>
       </c>
       <c r="F17" s="30">
-        <f>$C$4 * F16</f>
+        <f>BurnDoc_avgRate * F16</f>
         <v>6400</v>
       </c>
       <c r="G17" s="30">
-        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, F$6, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, F$6, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="H17" s="30">
-        <f>$C$4 * H16</f>
+        <f>BurnDoc_avgRate * H16</f>
         <v>6400</v>
       </c>
       <c r="I17" s="30">
-        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, H$6, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, H$6, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>0</v>
       </c>
       <c r="J17" s="25"/>
@@ -1136,7 +1139,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="31">
-        <f>B3</f>
+        <f>BurnDoc_budget</f>
         <v>50000</v>
       </c>
       <c r="D18" s="31">
@@ -1144,7 +1147,7 @@
         <v>43600</v>
       </c>
       <c r="E18" s="31">
-        <f>IF(E17=0, "", $B$3 - SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, "&lt;=" &amp; D$6, Timecards!$C$1:$C992, $B$1))</f>
+        <f>IF(E17=0, "", $B$3 - SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, "&lt;=" &amp; D$6, Timecards!$C$1:$C992, BurnDoc_project))</f>
         <v>43700</v>
       </c>
       <c r="F18" s="31">
@@ -1152,7 +1155,7 @@
         <v>37300</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(G17=0, "", $B$3 - SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, "&lt;=" &amp; F$6, Timecards!$C$1:$C992, $B$1))</f>
+        <f>IF(G17=0, "", $B$3 - SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, "&lt;=" &amp; F$6, Timecards!$C$1:$C992, BurnDoc_project))</f>
         <v/>
       </c>
       <c r="H18" s="31">
@@ -1160,7 +1163,7 @@
         <v>30900</v>
       </c>
       <c r="I18" t="str">
-        <f>IF(I17=0, "", $B$3 - SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, "&lt;=" &amp; H$6, Timecards!$C$1:$C992, $B$1))</f>
+        <f>IF(I17=0, "", $B$3 - SUMIFS(Timecards!$F$1:$F992, Timecards!$A$1:$A992, "&lt;=" &amp; H$6, Timecards!$C$1:$C992, BurnDoc_project))</f>
         <v/>
       </c>
       <c r="J18" s="25"/>
@@ -1245,7 +1248,7 @@
         <v>52</v>
       </c>
       <c r="B21">
-        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>177</v>
       </c>
       <c r="AH21" s="19"/>
@@ -1298,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="32">
-        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$C$1:$C992, $B$1)</f>
+        <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$C$1:$C992, BurnDoc_project)</f>
         <v>6300</v>
       </c>
       <c r="AH23" s="19"/>
@@ -1328,7 +1331,7 @@
         <v>54</v>
       </c>
       <c r="B24" s="32">
-        <f>$B$3 - $B$23</f>
+        <f>BurnDoc_budget - $B$23</f>
         <v>43700</v>
       </c>
       <c r="AH24" s="19"/>
@@ -1460,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($A$8:$A$15, UNIQUE(FILTER(Timecards!$B$1:$B992,Timecards!$C$1:$C992=$B$1)))"),"abraham.lincoln")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($A$8:$A$15, UNIQUE(FILTER(Timecards!$B$1:$B992,Timecards!$C$1:$C992=BurnDoc_project)))"),"abraham.lincoln")</f>
         <v>abraham.lincoln</v>
       </c>
       <c r="F29" s="33"/>
@@ -1553,7 +1556,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($B$6:$ABB$6, UNIQUE(FILTER(Timecards!$A$1:$A992,Timecards!$C$1:$C992=$B$1)))"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($B$6:$ABB$6, UNIQUE(FILTER(Timecards!$A$1:$A992,Timecards!$C$1:$C992=BurnDoc_project)))"),"")</f>
         <v/>
       </c>
       <c r="F32" s="33"/>
@@ -23665,16 +23668,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:K11"/>
+    <mergeCell ref="BA6:BB11"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="J6:K11"/>
-    <mergeCell ref="BA6:BB11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24118,15 +24121,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C24"/>

--- a/examples/Tock Burn Document Example Template.xlsx
+++ b/examples/Tock Burn Document Example Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>start_date</t>
   </si>
@@ -151,10 +151,7 @@
     <t>Project participants</t>
   </si>
   <si>
-    <t>Copy and paste the previous two columns here and adjust the date to add more weeks to the project.</t>
-  </si>
-  <si>
-    <t>Feel free to add columns past this point.</t>
+    <t>Copy and paste the previous two columns here to add more weeks to the project.</t>
   </si>
   <si>
     <t>Est</t>
@@ -623,10 +620,12 @@
         <v>43037.0</v>
       </c>
       <c r="F6" s="24">
-        <v>43044.0</v>
+        <f>D6+7</f>
+        <v>43044</v>
       </c>
       <c r="H6" s="24">
-        <v>43051.0</v>
+        <f>F6+7</f>
+        <v>43051</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>43</v>
@@ -652,31 +651,30 @@
       <c r="AX6" s="19"/>
       <c r="AY6" s="19"/>
       <c r="AZ6" s="19"/>
-      <c r="BA6" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>46</v>
+      <c r="F7" s="27" t="s">
+        <v>44</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>46</v>
-      </c>
       <c r="H7" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
@@ -699,6 +697,8 @@
       <c r="AX7" s="19"/>
       <c r="AY7" s="19"/>
       <c r="AZ7" s="19"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
@@ -747,6 +747,8 @@
       <c r="AX8" s="19"/>
       <c r="AY8" s="19"/>
       <c r="AZ8" s="19"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
@@ -795,6 +797,8 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="19"/>
       <c r="AZ9" s="19"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
@@ -843,6 +847,8 @@
       <c r="AX10" s="19"/>
       <c r="AY10" s="19"/>
       <c r="AZ10" s="19"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
@@ -891,6 +897,8 @@
       <c r="AX11" s="19"/>
       <c r="AY11" s="19"/>
       <c r="AZ11" s="19"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
@@ -974,7 +982,7 @@
     </row>
     <row r="14" ht="57.0">
       <c r="A14" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="10"/>
@@ -1031,7 +1039,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16">
@@ -1084,7 +1092,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="30">
         <f>BurnDoc_avgRate * D16</f>
@@ -1136,7 +1144,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="31">
         <f>BurnDoc_budget</f>
@@ -1215,7 +1223,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <f>SUMPRODUCT(--(MOD(COLUMN($B$16:BB$16),2)=0),$B$16:BB$16)</f>
@@ -1245,7 +1253,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <f>SUMIFS(Timecards!$D$1:$D992, Timecards!$C$1:$C992, BurnDoc_project)</f>
@@ -1298,7 +1306,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="32">
         <f>SUMIFS(Timecards!$F$1:$F992, Timecards!$C$1:$C992, BurnDoc_project)</f>
@@ -1328,7 +1336,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="32">
         <f>BurnDoc_budget - $B$23</f>
@@ -1358,7 +1366,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="32">
         <f>IFERROR(__xludf.DUMMYFUNCTION("INDEX(FILTER($C$18:BB$18, $C$18:BB$18 &lt;&gt; """"), 1, COUNTA(FILTER($C$18:BB$18, $C$18:BB$18 &lt;&gt; """")))"),"$30,900.00")</f>
@@ -1411,7 +1419,7 @@
     </row>
     <row r="27" ht="21.0">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
@@ -1460,7 +1468,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($A$8:$A$15, UNIQUE(FILTER(Timecards!$B$1:$B992,Timecards!$C$1:$C992=BurnDoc_project)))"),"abraham.lincoln")</f>
@@ -1493,7 +1501,7 @@
     <row r="30" ht="30.75">
       <c r="A30" s="1"/>
       <c r="B30" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -1553,7 +1561,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("listDifferences($B$6:$ABB$6, UNIQUE(FILTER(Timecards!$A$1:$A992,Timecards!$C$1:$C992=BurnDoc_project)))"),"")</f>
@@ -1585,7 +1593,7 @@
     </row>
     <row r="33" ht="41.25">
       <c r="B33" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
@@ -23667,10 +23675,7 @@
       <c r="BB992" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J6:K11"/>
-    <mergeCell ref="BA6:BB11"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="9">
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F6:G6"/>
@@ -23678,6 +23683,8 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
